--- a/biology/Microbiologie/Isotrichidae/Isotrichidae.xlsx
+++ b/biology/Microbiologie/Isotrichidae/Isotrichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isotrichidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Trichostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Isotricha, dérivé du grec ἴσος / isos, « égal (en nombre, force, longueur... ), également réparti, régulier », et de θριξ  / thrix), « cheveu, poil, soie, cil », en référence à la ciliation très uniforme de cet organisme.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Isotrichidae ont une taille, petite (&lt; 80 μm) à moyenne (80 à 200 μm) ; une forme ovoïde, aplatie. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c'est à dire ayant une ciliature uniforme), dense, avec parfois jusqu'à 200 rangées de cils. Ils n’ont pas de vacuole concrétionnelle, mais des réserves de polysaccharides endoplasmiques. Les extrusomes (cellules migratrices destinées à l'excrétion) sont sous forme de mucocystes somatiques (cellules de mucus). Leur cavité buccale se trouve au niveau ou à proximité du pôle antapical (partie la plus postérieure du corps cellulaire), bordée d'extensions de cinéties somatiques (cils). Leur macronoyau est ellipsoïde. Micronoyau et vacuoles contractiles sont présents et peuvent être multiples. Le cytoprocte est postérieur. Ils se nourrissant de bactéries et de détritus organiques[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Isotrichidae ont une taille, petite (&lt; 80 μm) à moyenne (80 à 200 μm) ; une forme ovoïde, aplatie. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c'est à dire ayant une ciliature uniforme), dense, avec parfois jusqu'à 200 rangées de cils. Ils n’ont pas de vacuole concrétionnelle, mais des réserves de polysaccharides endoplasmiques. Les extrusomes (cellules migratrices destinées à l'excrétion) sont sous forme de mucocystes somatiques (cellules de mucus). Leur cavité buccale se trouve au niveau ou à proximité du pôle antapical (partie la plus postérieure du corps cellulaire), bordée d'extensions de cinéties somatiques (cils). Leur macronoyau est ellipsoïde. Micronoyau et vacuoles contractiles sont présents et peuvent être multiples. Le cytoprocte est postérieur. Ils se nourrissant de bactéries et de détritus organiques.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Isotrichidae vivent dans des habitats terrestres, largement trouvés comme endocommensaux chez les ruminants ongulés. Le genre Protoisotricha été observé chez des rongeurs et un Isotricha a été observé chez le cafard[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Isotrichidae vivent dans des habitats terrestres, largement trouvés comme endocommensaux chez les ruminants ongulés. Le genre Protoisotricha été observé chez des rongeurs et un Isotricha a été observé chez le cafard.
 </t>
         </is>
       </c>
@@ -604,13 +622,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 juin 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 juin 2023) :
 Aviisotricha Bardele, Schultheiss, Lynn, Wright, Dominguez-Bello &amp; Obispo, 2017
 Dasytricha Schuberg, 1888
 Isotricha Stein, 1858
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Dasytricha Schuberg, 1888
 Isotricha Stein, 1859
 Oligoisotricha Imai, 1981
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Isotrichidae Bütschli, 1889[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Isotrichidae Bütschli, 1889.
 </t>
         </is>
       </c>
